--- a/output/ExchangeRateAfterPosibleAttack.xlsx
+++ b/output/ExchangeRateAfterPosibleAttack.xlsx
@@ -454,7 +454,7 @@
         <v>33847</v>
       </c>
       <c r="B2" t="n">
-        <v>38301062843.8394</v>
+        <v>45301062843.8394</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>33816</v>
       </c>
       <c r="B3" t="n">
-        <v>38128523886.5461</v>
+        <v>45128523886.5461</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>33785</v>
       </c>
       <c r="B4" t="n">
-        <v>37441674495.1555</v>
+        <v>44441674495.1555</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
         <v>33755</v>
       </c>
       <c r="B5" t="n">
-        <v>36509617674.5745</v>
+        <v>43509617674.5745</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         <v>33724</v>
       </c>
       <c r="B6" t="n">
-        <v>35658316521.9297</v>
+        <v>42658316521.9297</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>33694</v>
       </c>
       <c r="B7" t="n">
-        <v>34971074074.0741</v>
+        <v>41971074074.0741</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>33663</v>
       </c>
       <c r="B8" t="n">
-        <v>35900016791.8692</v>
+        <v>42900016791.8692</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +510,7 @@
         <v>33634</v>
       </c>
       <c r="B9" t="n">
-        <v>36202649828.8269</v>
+        <v>43202649828.8269</v>
       </c>
     </row>
     <row r="10">
@@ -518,7 +518,7 @@
         <v>33603</v>
       </c>
       <c r="B10" t="n">
-        <v>36930984608.5626</v>
+        <v>43930984608.5626</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>33572</v>
       </c>
       <c r="B11" t="n">
-        <v>35496382376.4946</v>
+        <v>42496382376.4946</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>33542</v>
       </c>
       <c r="B12" t="n">
-        <v>34942887809.3442</v>
+        <v>41942887809.3442</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>33511</v>
       </c>
       <c r="B13" t="n">
-        <v>35405906976.7442</v>
+        <v>42405906976.7442</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>33481</v>
       </c>
       <c r="B14" t="n">
-        <v>34323375091.9179</v>
+        <v>41323375091.9179</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>33450</v>
       </c>
       <c r="B15" t="n">
-        <v>34299887863.184</v>
+        <v>41299887863.184</v>
       </c>
     </row>
     <row r="16">
